--- a/RoomAcoustics/modulo 2/1_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/modulo 2/1_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\modulo 2\1_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5515B-51A3-42C2-BC7F-125BA0BC1FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE68F6-8E98-4209-9FD6-DE96D10BA0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1249,16 +1249,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1282,7 +1273,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1294,22 +1294,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1318,22 +1306,34 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16408,18 +16408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="N1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16452,10 +16452,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -16493,11 +16493,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.14322978529008681</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -16531,11 +16531,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="93">
         <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
         <v>0.10523069894929193</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -16569,11 +16569,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>9.174280493375972E-2</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -16607,11 +16607,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7512562814070379E-2</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -16645,11 +16645,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.1685701233439943E-2</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -16683,36 +16683,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>6.1831886706258575E-2</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="I11" s="91" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="M11" s="95" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16723,23 +16723,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -16750,17 +16750,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>36.594409401376723</v>
       </c>
-      <c r="O14" s="94"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -16771,17 +16771,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>25.744066065912751</v>
       </c>
-      <c r="O15" s="94"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -16792,17 +16792,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>22.111027701283842</v>
       </c>
-      <c r="O16" s="94"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -16813,11 +16813,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>15.848470886212384</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -16830,11 +16830,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>14.390700448399931</v>
       </c>
-      <c r="O18" s="94"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -16848,25 +16848,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>14.427051834538505</v>
       </c>
-      <c r="O19" s="94"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="I21" s="91" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -17014,23 +17014,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -17042,6 +17025,23 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17067,18 +17067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="N1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -17111,10 +17111,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -17152,11 +17152,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -17190,11 +17190,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.10610792192881746</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -17228,11 +17228,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -17266,11 +17266,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -17304,11 +17304,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -17342,36 +17342,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="I11" s="91" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="M11" s="95" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17382,23 +17382,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17409,17 +17409,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>23.464703546708158</v>
       </c>
-      <c r="O14" s="94"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17430,17 +17430,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>16.542489146908476</v>
       </c>
-      <c r="O15" s="94"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17451,17 +17451,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>14.179971665654724</v>
       </c>
-      <c r="O16" s="94"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17472,11 +17472,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>10.162739591032276</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -17489,11 +17489,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>9.2083371786319699</v>
       </c>
-      <c r="O18" s="94"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -17507,25 +17507,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>9.1992455924559273</v>
       </c>
-      <c r="O19" s="94"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="I21" s="91" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -17673,12 +17673,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17692,15 +17695,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17725,18 +17725,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="N1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -17769,10 +17769,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -17810,11 +17810,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
         <v>0.34595692307692311</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -17848,11 +17848,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.22980307692307692</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -17886,11 +17886,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.32038</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -17924,11 +17924,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.31133692307692307</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -17962,11 +17962,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.30449846153846155</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -18000,36 +18000,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.29796923076923076</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="I11" s="91" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="M11" s="95" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18040,23 +18040,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18067,17 +18067,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>68.763666472215434</v>
       </c>
-      <c r="O14" s="94"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18088,17 +18088,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>38.788002269149942</v>
       </c>
-      <c r="O15" s="94"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18109,17 +18109,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>61.283364232953708</v>
       </c>
-      <c r="O16" s="94"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18130,11 +18130,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>58.771555142516931</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -18147,11 +18147,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>56.915474389261988</v>
       </c>
-      <c r="O18" s="94"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -18165,25 +18165,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>55.177068723702661</v>
       </c>
-      <c r="O19" s="94"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="I21" s="91" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -18331,12 +18331,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18350,15 +18353,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18383,18 +18383,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="N1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -18430,10 +18430,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -18474,11 +18474,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
         <v>0.17966651439013248</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -18515,11 +18515,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.27222476016445868</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -18556,11 +18556,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.44058108725445411</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -18597,11 +18597,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.54728688899040667</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -18638,11 +18638,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.54038510735495671</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -18679,36 +18679,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.53636866148926465</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="I11" s="91" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="M11" s="95" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18719,23 +18719,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18746,17 +18746,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>47.942697317495579</v>
       </c>
-      <c r="O14" s="94"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18767,17 +18767,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>81.879674847781061</v>
       </c>
-      <c r="O15" s="94"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18788,17 +18788,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>172.39889071084659</v>
       </c>
-      <c r="O16" s="94"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18809,11 +18809,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>264.62918145408281</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -18826,11 +18826,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>257.36829222232063</v>
       </c>
-      <c r="O18" s="94"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="103" t="s">
@@ -18848,25 +18848,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>253.24237222001631</v>
       </c>
-      <c r="O19" s="94"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="I21" s="91" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -19014,12 +19014,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19033,16 +19037,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19067,18 +19067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="N1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -19114,10 +19114,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -19158,11 +19158,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.18063145809414469</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -19199,11 +19199,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.27305396096440876</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -19240,11 +19240,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.44091963260619982</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -19281,11 +19281,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.54718484500574061</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -19322,11 +19322,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.5401308840413318</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -19363,36 +19363,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.53591044776119412</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="I11" s="91" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="M11" s="95" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19403,23 +19403,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19430,17 +19430,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>30.722194851962396</v>
       </c>
-      <c r="O14" s="94"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19451,17 +19451,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>52.346113681949554</v>
       </c>
-      <c r="O15" s="94"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19472,17 +19472,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>109.9064885544779</v>
       </c>
-      <c r="O16" s="94"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19493,11 +19493,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>168.40355089477237</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -19510,11 +19510,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>163.68274665082163</v>
       </c>
-      <c r="O18" s="94"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -19528,25 +19528,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>160.92687206535027</v>
       </c>
-      <c r="O19" s="94"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="I21" s="91" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -19694,12 +19694,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19713,15 +19716,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19746,18 +19746,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="N1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -19793,10 +19793,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -19837,11 +19837,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.19182153846153846</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -19878,11 +19878,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.26621846153846151</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -19919,11 +19919,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.38865538461538468</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -19960,11 +19960,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.43475230769230772</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -20001,11 +20001,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.43422307692307704</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -20042,36 +20042,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.42225692307692314</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="I11" s="91" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="M11" s="95" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -20082,23 +20082,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -20109,17 +20109,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>30.855561224101301</v>
       </c>
-      <c r="O14" s="94"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -20130,17 +20130,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>47.164446345380512</v>
       </c>
-      <c r="O15" s="94"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -20151,17 +20151,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>82.64602112870999</v>
       </c>
-      <c r="O16" s="94"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -20172,11 +20172,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>99.987670483464015</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -20189,11 +20189,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>99.772538782613466</v>
       </c>
-      <c r="O18" s="94"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -20207,25 +20207,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>95.013514125256648</v>
       </c>
-      <c r="O19" s="94"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="I21" s="91" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -20373,12 +20373,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20392,15 +20395,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20414,7 +20414,7 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -20427,42 +20427,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="108"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="109" t="s">
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="L1" s="109" t="s">
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="L1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
@@ -20480,10 +20480,10 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="44" t="s">
         <v>69</v>
       </c>
@@ -20501,17 +20501,17 @@
       <c r="B4" s="59">
         <v>58</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
@@ -20527,10 +20527,10 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="117">
+      <c r="J5" s="112">
         <v>125</v>
       </c>
-      <c r="K5" s="117"/>
+      <c r="K5" s="112"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
@@ -20554,10 +20554,10 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="117">
+      <c r="J6" s="112">
         <v>250</v>
       </c>
-      <c r="K6" s="117"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
@@ -20581,10 +20581,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="112">
         <v>500</v>
       </c>
-      <c r="K7" s="117"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
@@ -20608,10 +20608,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="117">
+      <c r="J8" s="112">
         <v>1000</v>
       </c>
-      <c r="K8" s="117"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
@@ -20648,10 +20648,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="112">
         <v>2000</v>
       </c>
-      <c r="K9" s="117"/>
+      <c r="K9" s="112"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
@@ -20702,33 +20702,33 @@
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="F13" s="110" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="F13" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="111" t="s">
+      <c r="G13" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="110" t="s">
+      <c r="L13" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="111" t="s">
+      <c r="M13" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="111" t="s">
+      <c r="N13" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="111" t="s">
+      <c r="O13" s="106" t="s">
         <v>59</v>
       </c>
       <c r="R13" s="31" t="s">
@@ -20740,17 +20740,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -21034,26 +21034,26 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
@@ -21070,18 +21070,18 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="102" t="s">
+      <c r="H29" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="107"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="119"/>
       <c r="L29" s="28" t="s">
         <v>84</v>
       </c>
@@ -21148,38 +21148,38 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="E34" s="109" t="s">
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="E34" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="H34" s="110" t="s">
+      <c r="F34" s="113"/>
+      <c r="H34" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="111" t="s">
+      <c r="I34" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="111" t="s">
+      <c r="J34" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="111" t="s">
+      <c r="K34" s="106" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -21317,11 +21317,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L40" s="106" t="s">
+      <c r="L40" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -21410,6 +21410,30 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21423,30 +21447,6 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21462,7 +21462,7 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/RoomAcoustics/modulo 2/1_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/modulo 2/1_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\modulo 2\1_room_design_absorption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i7\Documents\GitHub\MusicalAcousticsHWs\RoomAcoustics\modulo 2\1_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE68F6-8E98-4209-9FD6-DE96D10BA0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F675CAE3-183A-49A3-94B9-6B9545ABB04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="113">
   <si>
     <t>classrooms</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t xml:space="preserve"> frequency of Schroder (Eyring)</t>
+  </si>
+  <si>
+    <t>curtain S7</t>
+  </si>
+  <si>
+    <t>arbitrary increase of the wall absorption</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,12 +1163,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,7 +1249,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1273,16 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1294,10 +1294,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1306,37 +1318,34 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1597,7 +1606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1659,7 +1668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1707,7 +1716,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1783,7 +1792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1949,7 +1958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2011,7 +2020,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2059,7 +2068,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2135,7 +2144,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2232,22 +2241,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1851824338421468</c:v>
+                  <c:v>7.28699058569586E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11989617113525272</c:v>
+                  <c:v>5.3567870339262406E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17047592448424267</c:v>
+                  <c:v>4.5109476496650654E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16532356554326968</c:v>
+                  <c:v>3.4138352672230254E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16144322041694723</c:v>
+                  <c:v>3.2017721552157201E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15775092634196683</c:v>
+                  <c:v>2.8880745714780942E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,7 +2336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2389,7 +2398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2437,7 +2446,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2513,7 +2522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2584,22 +2593,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.2796481929268204E-2</c:v>
+                  <c:v>0.10345112857094275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14330885797888879</c:v>
+                  <c:v>0.11520435443898518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24149778251730669</c:v>
+                  <c:v>0.1344821100763561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30941426704234282</c:v>
+                  <c:v>0.15288726195938399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30485141113974895</c:v>
+                  <c:v>0.15538407349589695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30220803261721307</c:v>
+                  <c:v>0.14994044133726178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,7 +2688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2741,7 +2750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2789,7 +2798,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2865,7 +2874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3031,7 +3040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -3093,7 +3102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -3141,7 +3150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3217,7 +3226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3383,7 +3392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -3445,7 +3454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -3493,7 +3502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16054,29 +16063,29 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="87" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="87"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -16087,23 +16096,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="88" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -16120,7 +16129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -16137,7 +16146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -16154,7 +16163,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -16168,7 +16177,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -16185,7 +16194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -16202,7 +16211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -16219,7 +16228,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -16236,17 +16245,17 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="87" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="87"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -16257,7 +16266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -16271,7 +16280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -16285,7 +16294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -16299,7 +16308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -16311,7 +16320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -16328,7 +16337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
@@ -16339,7 +16348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -16383,7 +16392,7 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16397,31 +16406,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -16452,16 +16461,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -16493,13 +16502,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="94">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.14322978529008681</v>
       </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16531,13 +16540,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="94">
         <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
         <v>0.10523069894929193</v>
       </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -16569,13 +16578,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="94">
         <f t="shared" si="0"/>
         <v>9.174280493375972E-2</v>
       </c>
-      <c r="O6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -16607,13 +16616,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="94">
         <f t="shared" si="0"/>
         <v>6.7512562814070379E-2</v>
       </c>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -16645,13 +16654,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="94">
         <f t="shared" si="0"/>
         <v>6.1685701233439943E-2</v>
       </c>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -16683,36 +16692,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="94">
         <f t="shared" si="0"/>
         <v>6.1831886706258575E-2</v>
       </c>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="100"/>
+      <c r="I11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="89"/>
+      <c r="M11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="100"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16723,23 +16732,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="100"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="100"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -16750,17 +16759,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="91">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>36.594409401376723</v>
       </c>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="100"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -16771,17 +16780,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="91">
         <f t="shared" si="3"/>
         <v>25.744066065912751</v>
       </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="O15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="100"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -16792,17 +16801,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="91">
         <f t="shared" si="3"/>
         <v>22.111027701283842</v>
       </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="O16" s="92"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="100"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -16813,13 +16822,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="91">
         <f t="shared" si="3"/>
         <v>15.848470886212384</v>
       </c>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -16830,13 +16839,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="91">
         <f t="shared" si="3"/>
         <v>14.390700448399931</v>
       </c>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -16848,27 +16857,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="91">
         <f t="shared" si="3"/>
         <v>14.427051834538505</v>
       </c>
-      <c r="O19" s="102"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="O19" s="92"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -16885,11 +16894,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>125</v>
       </c>
@@ -16909,7 +16918,7 @@
         <v>7.3459262480994297E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>250</v>
       </c>
@@ -16929,7 +16938,7 @@
         <v>5.3590193113911062E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>500</v>
       </c>
@@ -16949,7 +16958,7 @@
         <v>4.6606972106571984E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
@@ -16969,7 +16978,7 @@
         <v>3.4149507813235815E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
@@ -16989,7 +16998,7 @@
         <v>3.1170124162752017E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
@@ -17009,11 +17018,28 @@
         <v>3.1244795148370939E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -17025,23 +17051,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17056,31 +17065,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -17111,16 +17120,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -17152,13 +17161,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="94">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -17190,13 +17199,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="94">
         <f t="shared" si="0"/>
         <v>0.10610792192881746</v>
       </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -17228,13 +17237,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="94">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="O6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -17266,13 +17275,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="94">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -17304,13 +17313,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="94">
         <f t="shared" si="0"/>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -17342,36 +17351,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="94">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="100"/>
+      <c r="I11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="89"/>
+      <c r="M11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="100"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17382,23 +17391,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="100"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="100"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17409,17 +17418,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="91">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>23.464703546708158</v>
       </c>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="100"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17430,17 +17439,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="91">
         <f t="shared" si="3"/>
         <v>16.542489146908476</v>
       </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="O15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="100"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17451,17 +17460,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="91">
         <f t="shared" si="3"/>
         <v>14.179971665654724</v>
       </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="O16" s="92"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="100"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17472,13 +17481,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="91">
         <f t="shared" si="3"/>
         <v>10.162739591032276</v>
       </c>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -17489,13 +17498,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="91">
         <f t="shared" si="3"/>
         <v>9.2083371786319699</v>
       </c>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -17507,27 +17516,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="91">
         <f t="shared" si="3"/>
         <v>9.1992455924559273</v>
       </c>
-      <c r="O19" s="102"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="O19" s="92"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -17544,11 +17553,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>125</v>
       </c>
@@ -17568,7 +17577,7 @@
         <v>7.3923148606776651E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>250</v>
       </c>
@@ -17588,7 +17597,7 @@
         <v>5.4045598860311156E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>500</v>
       </c>
@@ -17608,7 +17617,7 @@
         <v>4.6922450284426306E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
@@ -17628,7 +17637,7 @@
         <v>3.4382570218562752E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
@@ -17648,7 +17657,7 @@
         <v>3.1320701183197922E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
@@ -17668,20 +17677,17 @@
         <v>3.1291376750845361E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17695,12 +17701,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17714,31 +17723,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -17769,16 +17778,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -17790,7 +17799,7 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="9">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="9">
         <v>0.1</v>
@@ -17799,10 +17808,10 @@
         <v>0.3</v>
       </c>
       <c r="G4" s="9">
-        <v>0.74</v>
+        <v>0.12</v>
       </c>
       <c r="H4" s="9">
-        <v>0.74</v>
+        <v>0.12</v>
       </c>
       <c r="I4" s="9">
         <v>0.12</v>
@@ -17810,13 +17819,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="94">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
-        <v>0.34595692307692311</v>
-      </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.14211076923076923</v>
+      </c>
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -17828,7 +17837,7 @@
         <v>0.11</v>
       </c>
       <c r="D5" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="9">
         <v>0.05</v>
@@ -17837,10 +17846,10 @@
         <v>0.25</v>
       </c>
       <c r="G5" s="9">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="H5" s="9">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="I5" s="9">
         <v>0.09</v>
@@ -17848,13 +17857,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="94">
         <f t="shared" si="0"/>
-        <v>0.22980307692307692</v>
-      </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.10518769230769233</v>
+      </c>
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -17866,7 +17875,7 @@
         <v>0.1</v>
       </c>
       <c r="D6" s="9">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="9">
         <v>0.06</v>
@@ -17875,10 +17884,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="9">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H6" s="9">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I6" s="9">
         <v>7.0000000000000007E-2</v>
@@ -17886,13 +17895,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="94">
         <f t="shared" si="0"/>
-        <v>0.32038</v>
-      </c>
-      <c r="O6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8.8841538461538472E-2</v>
+      </c>
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -17904,7 +17913,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7" s="9">
-        <v>0.98</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E7" s="9">
         <v>7.0000000000000007E-2</v>
@@ -17913,10 +17922,10 @@
         <v>0.17</v>
       </c>
       <c r="G7" s="9">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="9">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="I7" s="9">
         <v>0.05</v>
@@ -17924,13 +17933,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="94">
         <f t="shared" si="0"/>
-        <v>0.31133692307692307</v>
-      </c>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.7490769230769229E-2</v>
+      </c>
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -17942,7 +17951,7 @@
         <v>0.06</v>
       </c>
       <c r="D8" s="9">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="9">
         <v>0.09</v>
@@ -17951,10 +17960,10 @@
         <v>0.15</v>
       </c>
       <c r="G8" s="9">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="H8" s="9">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="I8" s="9">
         <v>0.05</v>
@@ -17962,13 +17971,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="94">
         <f t="shared" si="0"/>
-        <v>0.30449846153846155</v>
-      </c>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.3344615384615388E-2</v>
+      </c>
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -17980,7 +17989,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="9">
-        <v>0.96</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E9" s="9">
         <v>0.08</v>
@@ -17989,10 +17998,10 @@
         <v>0.1</v>
       </c>
       <c r="G9" s="9">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="H9" s="9">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="I9" s="9">
         <v>0.04</v>
@@ -18000,36 +18009,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="94">
         <f t="shared" si="0"/>
-        <v>0.29796923076923076</v>
-      </c>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="100"/>
+      <c r="I11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="89"/>
+      <c r="M11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="100"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18040,152 +18049,152 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="100"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="100"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_B2</f>
-        <v>44.974400000000003</v>
+        <v>18.474399999999999</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="91">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
-        <v>68.763666472215434</v>
-      </c>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+        <v>21.534714899538759</v>
+      </c>
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="100"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>29.874399999999998</v>
+        <v>13.674400000000002</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="91">
         <f t="shared" si="3"/>
-        <v>38.788002269149942</v>
-      </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+        <v>15.281864009298042</v>
+      </c>
+      <c r="O15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="100"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>41.6494</v>
+        <v>11.549400000000002</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="91">
         <f t="shared" si="3"/>
-        <v>61.283364232953708</v>
-      </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+        <v>12.675511985587242</v>
+      </c>
+      <c r="O16" s="92"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="100"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>40.473799999999997</v>
+        <v>8.7737999999999996</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="91">
         <f t="shared" si="3"/>
-        <v>58.771555142516931</v>
-      </c>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4088076669894782</v>
+      </c>
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>39.584800000000001</v>
+        <v>8.2347999999999999</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="91">
         <f t="shared" si="3"/>
-        <v>56.915474389261988</v>
-      </c>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.7917073186756145</v>
+      </c>
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>38.735999999999997</v>
+        <v>7.4359999999999999</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="91">
         <f t="shared" si="3"/>
-        <v>55.177068723702661</v>
-      </c>
-      <c r="O19" s="102"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+        <v>7.8871446754348753</v>
+      </c>
+      <c r="O19" s="92"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -18202,144 +18211,141 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" ref="D24:D29" si="4">0.16*volume_B2/J14</f>
-        <v>0.35575794229606172</v>
+        <v>0.86606330922790464</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" ref="F24:F29" si="5">-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
-        <v>0.289877820683003</v>
+        <v>0.80295335741830121</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>0.1851824338421468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.28699058569586E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="4"/>
-        <v>0.53557560988672581</v>
+        <v>1.1700696191423388</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="5"/>
-        <v>0.47136214490787959</v>
+        <v>1.1073914814962118</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>0.11989617113525272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.3567870339262406E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="4"/>
-        <v>0.38415919557064448</v>
+        <v>1.3853533516892651</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="5"/>
-        <v>0.31866930155661588</v>
+        <v>1.322860787231682</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="6"/>
-        <v>0.17047592448424267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.5109476496650654E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="4"/>
-        <v>0.39531746463144063</v>
+        <v>1.8236112060908616</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="5"/>
-        <v>0.32996217185704546</v>
+        <v>1.7613561236003006</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="6"/>
-        <v>0.16532356554326968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.4138352672230254E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="4"/>
-        <v>0.40419554980699662</v>
+        <v>1.9429737212804197</v>
       </c>
       <c r="F28" s="16">
         <f t="shared" si="5"/>
-        <v>0.3389409185679565</v>
+        <v>1.8807641296893045</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="6"/>
-        <v>0.16144322041694723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.2017721552157201E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" si="4"/>
-        <v>0.41305245766212312</v>
+        <v>2.1516944593867673</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="5"/>
-        <v>0.34789304983809716</v>
+        <v>2.089551918849315</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="6"/>
-        <v>0.15775092634196683</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.8880745714780942E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18353,12 +18359,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18372,31 +18381,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -18425,21 +18434,21 @@
         <v>22</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -18451,7 +18460,7 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="9">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="9">
         <v>0.1</v>
@@ -18474,13 +18483,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="94">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
-        <v>0.17966651439013248</v>
-      </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.19950890817724987</v>
+      </c>
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -18492,7 +18501,7 @@
         <v>0.11</v>
       </c>
       <c r="D5" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="9">
         <v>0.05</v>
@@ -18515,13 +18524,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="94">
         <f t="shared" si="0"/>
-        <v>0.27222476016445868</v>
-      </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.22120146185472822</v>
+      </c>
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -18533,7 +18542,7 @@
         <v>0.1</v>
       </c>
       <c r="D6" s="9">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="9">
         <v>0.06</v>
@@ -18556,13 +18565,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="94">
         <f t="shared" si="0"/>
-        <v>0.44058108725445411</v>
-      </c>
-      <c r="O6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.2563302878026496</v>
+      </c>
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -18574,7 +18583,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7" s="9">
-        <v>0.98</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E7" s="9">
         <v>7.0000000000000007E-2</v>
@@ -18597,13 +18606,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="94">
         <f t="shared" si="0"/>
-        <v>0.54728688899040667</v>
-      </c>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.28933576975788033</v>
+      </c>
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -18615,7 +18624,7 @@
         <v>0.06</v>
       </c>
       <c r="D8" s="9">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="9">
         <v>0.09</v>
@@ -18638,13 +18647,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="94">
         <f t="shared" si="0"/>
-        <v>0.54038510735495671</v>
-      </c>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.293772498857926</v>
+      </c>
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -18656,7 +18665,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="9">
-        <v>0.96</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E9" s="9">
         <v>0.08</v>
@@ -18679,36 +18688,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="94">
         <f t="shared" si="0"/>
-        <v>0.53636866148926465</v>
-      </c>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.28408679762448608</v>
+      </c>
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="100"/>
+      <c r="I11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="89"/>
+      <c r="M11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="100"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18719,156 +18728,156 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="100"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="100"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_A</f>
-        <v>39.328999999999994</v>
+        <v>43.672499999999992</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="91">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
-        <v>47.942697317495579</v>
-      </c>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+        <v>54.557134296842662</v>
+      </c>
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="100"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>59.589999999999996</v>
+        <v>48.420999999999999</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="91">
         <f t="shared" si="3"/>
-        <v>81.879674847781061</v>
-      </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+        <v>62.173973920541535</v>
+      </c>
+      <c r="O15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="100"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>96.44319999999999</v>
+        <v>56.110699999999994</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="91">
         <f t="shared" si="3"/>
-        <v>172.39889071084659</v>
-      </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+        <v>75.451102928755148</v>
+      </c>
+      <c r="O16" s="92"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="100"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>119.80110000000001</v>
+        <v>63.335599999999999</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="91">
         <f t="shared" si="3"/>
-        <v>264.62918145408281</v>
-      </c>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89.121693909403433</v>
+      </c>
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>118.29030000000002</v>
+        <v>64.306799999999996</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="91">
         <f t="shared" si="3"/>
-        <v>257.36829222232063</v>
-      </c>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+        <v>91.056776882812429</v>
+      </c>
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="103"/>
+      <c r="B19" s="101"/>
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>117.41110000000002</v>
+        <v>62.186599999999999</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="91">
         <f t="shared" si="3"/>
-        <v>253.24237222001631</v>
-      </c>
-      <c r="O19" s="102"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+        <v>86.863323366093766</v>
+      </c>
+      <c r="O19" s="92"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -18885,145 +18894,141 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" ref="D24:D29" si="4">0.16*volume_A/J14</f>
-        <v>0.75730377075440514</v>
+        <v>0.68198523098059416</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" ref="F24:F29" si="5">-0.16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
-        <v>0.68702864507662731</v>
+        <v>0.61143308916693662</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>9.2796481929268204E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10345112857094275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="4"/>
-        <v>0.49981540526934043</v>
+        <v>0.61510501641849602</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="5"/>
-        <v>0.42818743033993578</v>
+        <v>0.5442422400898218</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>0.14330885797888879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11520435443898518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="4"/>
-        <v>0.30882426132687424</v>
+        <v>0.53080784948325366</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="5"/>
-        <v>0.23424388702888888</v>
+        <v>0.45942368983965287</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="6"/>
-        <v>0.24149778251730669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.1344821100763561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="4"/>
-        <v>0.24861207451350609</v>
+        <v>0.47025685396522643</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="5"/>
-        <v>0.17168795170003329</v>
+        <v>0.39836057114484907</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="6"/>
-        <v>0.30941426704234282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.15288726195938399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="4"/>
-        <v>0.25178734012848047</v>
+        <v>0.46315475190804078</v>
       </c>
       <c r="F28" s="16">
         <f t="shared" si="5"/>
-        <v>0.17502961418318927</v>
+        <v>0.39118787989758785</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="6"/>
-        <v>0.30485141113974895</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.15538407349589695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" si="4"/>
-        <v>0.25367277880881783</v>
+        <v>0.47894562494170762</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="5"/>
-        <v>0.17701082739646354</v>
+        <v>0.40713230656139732</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="6"/>
-        <v>0.30220803261721307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.14994044133726178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19037,12 +19042,16 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19056,31 +19065,35 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="121"/>
+      <c r="N1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -19114,16 +19127,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -19158,13 +19171,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="94">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.18063145809414469</v>
       </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -19199,13 +19212,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="94">
         <f t="shared" si="0"/>
         <v>0.27305396096440876</v>
       </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -19240,13 +19253,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="94">
         <f t="shared" si="0"/>
         <v>0.44091963260619982</v>
       </c>
-      <c r="O6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -19281,13 +19294,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="94">
         <f t="shared" si="0"/>
         <v>0.54718484500574061</v>
       </c>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -19322,13 +19335,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="94">
         <f t="shared" si="0"/>
         <v>0.5401308840413318</v>
       </c>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -19363,36 +19376,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="94">
         <f t="shared" si="0"/>
         <v>0.53591044776119412</v>
       </c>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="100"/>
+      <c r="I11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="89"/>
+      <c r="M11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="100"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19403,23 +19416,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="100"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="100"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19430,17 +19443,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="91">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>30.722194851962396</v>
       </c>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="100"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19451,17 +19464,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="91">
         <f t="shared" si="3"/>
         <v>52.346113681949554</v>
       </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="O15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="100"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19472,17 +19485,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="91">
         <f t="shared" si="3"/>
         <v>109.9064885544779</v>
       </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="O16" s="92"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="100"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19493,13 +19506,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="91">
         <f t="shared" si="3"/>
         <v>168.40355089477237</v>
       </c>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -19510,13 +19523,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="91">
         <f t="shared" si="3"/>
         <v>163.68274665082163</v>
       </c>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -19528,27 +19541,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="91">
         <f t="shared" si="3"/>
         <v>160.92687206535027</v>
       </c>
-      <c r="O19" s="102"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="O19" s="92"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -19565,11 +19578,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>125</v>
       </c>
@@ -19589,7 +19602,7 @@
         <v>9.3312550174082035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>250</v>
       </c>
@@ -19609,7 +19622,7 @@
         <v>0.14377118848435952</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>500</v>
       </c>
@@ -19629,7 +19642,7 @@
         <v>0.2417052231212172</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
@@ -19649,7 +19662,7 @@
         <v>0.30934661315119105</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
@@ -19669,7 +19682,7 @@
         <v>0.30468383848774583</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
@@ -19689,20 +19702,18 @@
         <v>0.30190701587090873</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+  <mergeCells count="29">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19716,12 +19727,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19735,31 +19749,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -19793,16 +19807,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -19837,13 +19851,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="94">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.19182153846153846</v>
       </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -19878,13 +19892,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="94">
         <f t="shared" si="0"/>
         <v>0.26621846153846151</v>
       </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -19919,13 +19933,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="94">
         <f t="shared" si="0"/>
         <v>0.38865538461538468</v>
       </c>
-      <c r="O6" s="94"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -19960,13 +19974,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="94">
         <f t="shared" si="0"/>
         <v>0.43475230769230772</v>
       </c>
-      <c r="O7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -20001,13 +20015,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="94">
         <f t="shared" si="0"/>
         <v>0.43422307692307704</v>
       </c>
-      <c r="O8" s="94"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -20042,36 +20056,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="94">
         <f t="shared" si="0"/>
         <v>0.42225692307692314</v>
       </c>
-      <c r="O9" s="94"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="100"/>
+      <c r="I11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="89"/>
+      <c r="M11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="100"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -20082,23 +20096,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="100"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="100"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -20109,17 +20123,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="91">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>30.855561224101301</v>
       </c>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="100"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -20130,17 +20144,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="91">
         <f t="shared" si="3"/>
         <v>47.164446345380512</v>
       </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="O15" s="92"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="100"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -20151,17 +20165,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="91">
         <f t="shared" si="3"/>
         <v>82.64602112870999</v>
       </c>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="O16" s="92"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="100"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -20172,13 +20186,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="91">
         <f t="shared" si="3"/>
         <v>99.987670483464015</v>
       </c>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -20189,13 +20203,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="91">
         <f t="shared" si="3"/>
         <v>99.772538782613466</v>
       </c>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -20207,27 +20221,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="91">
         <f t="shared" si="3"/>
         <v>95.013514125256648</v>
       </c>
-      <c r="O19" s="102"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="O19" s="92"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -20244,11 +20258,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>125</v>
       </c>
@@ -20268,7 +20282,7 @@
         <v>9.9312589188717118E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>250</v>
       </c>
@@ -20288,7 +20302,7 @@
         <v>0.13996548143239537</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>500</v>
       </c>
@@ -20308,7 +20322,7 @@
         <v>0.2102016664118154</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
@@ -20328,7 +20342,7 @@
         <v>0.23793343480866094</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
@@ -20348,7 +20362,7 @@
         <v>0.2376104741489283</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
@@ -20368,20 +20382,17 @@
         <v>0.23033740055394689</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20395,12 +20406,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20414,49 +20428,49 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="113" t="s">
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="L1" s="113" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="L1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
@@ -20464,9 +20478,9 @@
       <c r="M2" s="114"/>
       <c r="N2" s="114"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -20480,10 +20494,10 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="112" t="s">
+      <c r="J3" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="112"/>
+      <c r="K3" s="115"/>
       <c r="L3" s="44" t="s">
         <v>69</v>
       </c>
@@ -20494,29 +20508,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="57">
         <v>58</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G5" s="14">
         <v>60</v>
       </c>
@@ -20527,10 +20541,10 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="112">
+      <c r="J5" s="115">
         <v>125</v>
       </c>
-      <c r="K5" s="112"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
@@ -20543,7 +20557,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G6" s="14">
         <v>65</v>
       </c>
@@ -20554,10 +20568,10 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="112">
+      <c r="J6" s="115">
         <v>250</v>
       </c>
-      <c r="K6" s="112"/>
+      <c r="K6" s="115"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
@@ -20570,7 +20584,7 @@
         <v>63.185399219516611</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G7" s="14">
         <v>66</v>
       </c>
@@ -20581,10 +20595,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="112">
+      <c r="J7" s="115">
         <v>500</v>
       </c>
-      <c r="K7" s="112"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
@@ -20597,7 +20611,7 @@
         <v>55.654499349597181</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G8" s="14">
         <v>67</v>
       </c>
@@ -20608,10 +20622,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="115">
         <v>1000</v>
       </c>
-      <c r="K8" s="112"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
@@ -20624,7 +20638,7 @@
         <v>48.123599479677743</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>73</v>
       </c>
@@ -20648,10 +20662,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="112">
+      <c r="J9" s="115">
         <v>2000</v>
       </c>
-      <c r="K9" s="112"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
@@ -20664,7 +20678,7 @@
         <v>39.092699609758306</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>74</v>
       </c>
@@ -20679,11 +20693,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="65">
         <f>IF(B9-B10 +D9&gt; 58, "ERROR", B9-B10 +D9)</f>
         <v>55</v>
       </c>
@@ -20697,62 +20711,62 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="33"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="F13" s="107" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="F13" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="107" t="s">
+      <c r="L13" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="106" t="s">
+      <c r="M13" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="106" t="s">
+      <c r="N13" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="106" t="s">
+      <c r="O13" s="109" t="s">
         <v>59</v>
       </c>
       <c r="R13" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="65">
+      <c r="S13" s="63">
         <f>160*SQRT(40/40)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -20771,7 +20785,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="22"/>
@@ -20784,7 +20798,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -20826,7 +20840,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -20868,7 +20882,7 @@
         <v>2.1853992195166114</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -20910,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -20952,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -20994,25 +21008,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="38">
         <f>IF(SUM(I17:I21) &gt; 10, "ERROR", SUM(I17:I21) )</f>
         <v>10</v>
       </c>
-      <c r="J22" s="104" t="s">
+      <c r="J22" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="105"/>
+      <c r="K22" s="103"/>
       <c r="O22" s="50">
         <f>IF(SUM(O17:O21) &gt; 10, "ERROR", SUM(O17:O21) )</f>
         <v>8.6853992195166114</v>
       </c>
-      <c r="P22" s="104" t="s">
+      <c r="P22" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="105"/>
-    </row>
-    <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="103"/>
+    </row>
+    <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -21033,33 +21047,33 @@
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="108"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="120">
         <v>50</v>
       </c>
       <c r="C27" s="25"/>
@@ -21067,36 +21081,36 @@
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="91" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H29" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="119"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="105"/>
       <c r="L29" s="28" t="s">
         <v>84</v>
       </c>
       <c r="M29" s="26">
         <v>509</v>
       </c>
-      <c r="N29" s="64" t="s">
+      <c r="N29" s="62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H30" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="63">
         <f>J40+M33</f>
         <v>63</v>
       </c>
@@ -21106,11 +21120,11 @@
       <c r="M30" s="26">
         <v>40</v>
       </c>
-      <c r="N30" s="64" t="s">
+      <c r="N30" s="62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>81</v>
       </c>
@@ -21123,11 +21137,11 @@
       <c r="M31" s="26">
         <v>10</v>
       </c>
-      <c r="N31" s="64" t="s">
+      <c r="N31" s="62" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L32" s="28" t="s">
         <v>87</v>
       </c>
@@ -21135,53 +21149,53 @@
         <f>160*SQRT(M31*((1/M29)+(1/M30)))</f>
         <v>83.08397531903104</v>
       </c>
-      <c r="N32" s="64" t="s">
+      <c r="N32" s="62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="66" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L33" s="64" t="s">
         <v>92</v>
       </c>
       <c r="M33" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="115" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="E34" s="113" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="E34" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="113"/>
-      <c r="H34" s="107" t="s">
+      <c r="F34" s="107"/>
+      <c r="H34" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="106" t="s">
+      <c r="I34" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="106" t="s">
+      <c r="J34" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="106" t="s">
+      <c r="K34" s="109" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -21202,7 +21216,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="29"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="22"/>
@@ -21213,7 +21227,7 @@
       <c r="J37" s="30"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>0</v>
       </c>
@@ -21224,11 +21238,11 @@
       <c r="C38" s="34">
         <v>36</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="59">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B38) -42.3</f>
         <v>53.772555906896315</v>
       </c>
-      <c r="F38" s="61">
+      <c r="F38" s="59">
         <f>E38-10*LOG10(0.23*E38)</f>
         <v>42.849670749016262</v>
       </c>
@@ -21239,7 +21253,7 @@
         <f>F38</f>
         <v>42.849670749016262</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="60">
         <f>C38+H38</f>
         <v>40</v>
       </c>
@@ -21248,7 +21262,7 @@
         <v>2.8496707490162621</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>1</v>
       </c>
@@ -21259,11 +21273,11 @@
       <c r="C39" s="34">
         <v>45</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="59">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B39) -42.3</f>
         <v>59.79315582017594</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="59">
         <f t="shared" ref="F39:F42" si="8">E39-10*LOG10(0.23*E39)</f>
         <v>48.409362703667817</v>
       </c>
@@ -21274,7 +21288,7 @@
         <f t="shared" ref="I39:I42" si="9">F39</f>
         <v>48.409362703667817</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="60">
         <f t="shared" ref="J39:J42" si="10">C39+H39</f>
         <v>49</v>
       </c>
@@ -21283,7 +21297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>2</v>
       </c>
@@ -21294,11 +21308,11 @@
       <c r="C40" s="34">
         <v>52</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="59">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B40) -42.3</f>
         <v>65.813755733455565</v>
       </c>
-      <c r="F40" s="61">
+      <c r="F40" s="59">
         <f t="shared" si="8"/>
         <v>54.013310623344665</v>
       </c>
@@ -21309,7 +21323,7 @@
         <f t="shared" si="9"/>
         <v>54.013310623344665</v>
       </c>
-      <c r="J40" s="63">
+      <c r="J40" s="61">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
@@ -21317,13 +21331,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L40" s="118" t="s">
+      <c r="L40" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>3</v>
       </c>
@@ -21334,11 +21348,11 @@
       <c r="C41" s="34">
         <v>55</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="59">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B41) -42.3</f>
         <v>71.834355646735176</v>
       </c>
-      <c r="F41" s="61">
+      <c r="F41" s="59">
         <f t="shared" si="8"/>
         <v>59.653755281561935</v>
       </c>
@@ -21349,7 +21363,7 @@
         <f t="shared" si="9"/>
         <v>59.653755281561935</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="60">
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
@@ -21358,7 +21372,7 @@
         <v>0.65375528156193496</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>4</v>
       </c>
@@ -21369,11 +21383,11 @@
       <c r="C42" s="34">
         <v>56</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="59">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B42) -42.3</f>
         <v>77.854955560014801</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="59">
         <f t="shared" si="8"/>
         <v>65.324814588424516</v>
       </c>
@@ -21384,7 +21398,7 @@
         <f t="shared" si="9"/>
         <v>65.324814588424516</v>
       </c>
-      <c r="J42" s="62">
+      <c r="J42" s="60">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
@@ -21393,47 +21407,23 @@
         <v>5.3248145884245162</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="34"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
       <c r="K43" s="38">
         <f>IF(SUM(K38:K42) &gt; 10, "ERROR", SUM(K38:K42) )</f>
         <v>8.8282406190027132</v>
       </c>
-      <c r="L43" s="104" t="s">
+      <c r="L43" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="M43" s="105"/>
+      <c r="M43" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21447,6 +21437,30 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21466,35 +21480,35 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="87" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="H1" s="120" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="H1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="71" t="s">
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="69" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -21504,7 +21518,7 @@
       <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -21514,757 +21528,757 @@
       <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="78">
         <f>(volume_A)^(1/3)</f>
         <v>5.7098015415784111</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="78">
         <f>(volume_B1)^(1/3)</f>
         <v>4.5573884707963188</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="78">
         <f>(volume_B2)^(1/3)</f>
         <v>4.6415888336127793</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="78">
         <f t="shared" ref="H3:H29" si="0" xml:space="preserve"> (343/2)*SQRT((K3/lenx1)^2 + (L3/leny1)^2 + (M3/lenz1)^2)</f>
         <v>20.176470588235293</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="78">
         <f t="shared" ref="I3:I29" si="1" xml:space="preserve"> (343/2)*SQRT((K3/lenx2)^2 + (L3/leny2)^2 + (M3/lenz2)^2)</f>
         <v>25.22058823529412</v>
       </c>
-      <c r="J3" s="80">
+      <c r="J3" s="78">
         <f t="shared" ref="J3:J29" si="2" xml:space="preserve"> (343/2)*SQRT((K3/lenx3)^2 + (L3/leny3)^2 + (M3/lenz3)^2)</f>
         <v>34.300000000000004</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="73">
         <v>1</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="73">
         <v>0</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="80">
         <f xml:space="preserve"> 343/B3</f>
         <v>60.072140424197904</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="80">
         <f t="shared" ref="C4:D4" si="3" xml:space="preserve"> 343/C3</f>
         <v>75.26240130678768</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="80">
         <f t="shared" si="3"/>
         <v>73.897109868093608</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="80">
+      <c r="G4" s="72"/>
+      <c r="H4" s="78">
         <f t="shared" si="0"/>
         <v>57.166666666666664</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="78">
         <f t="shared" si="1"/>
         <v>71.458333333333343</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="78">
         <f t="shared" si="2"/>
         <v>34.300000000000004</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="73">
         <v>0</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="73">
         <v>1</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="80">
         <f>'CASE A'!D26</f>
         <v>1.4830822855720152</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="80">
         <f>'CASE  B1'!D26</f>
         <v>1.1767279960218797</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <f>'CASE B2'!D26</f>
-        <v>0.38415919557064448</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="80">
+        <v>1.3853533516892651</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="78">
         <f t="shared" si="0"/>
         <v>23.493150684931507</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="78">
         <f t="shared" si="1"/>
         <v>29.568965517241381</v>
       </c>
-      <c r="J5" s="80">
+      <c r="J5" s="78">
         <f t="shared" si="2"/>
         <v>42.875</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="73">
         <v>0</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="73">
         <v>0</v>
       </c>
-      <c r="M5" s="75">
+      <c r="M5" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="80">
         <f>'CASE A'!F26</f>
         <v>1.4139603108566092</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="80">
         <f>'CASE  B1'!F26</f>
         <v>1.1215130351302505</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <f>'CASE B2'!F26</f>
-        <v>0.31866930155661588</v>
-      </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="80">
+        <v>1.322860787231682</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="78">
         <f t="shared" si="0"/>
         <v>40.352941176470587</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="78">
         <f t="shared" si="1"/>
         <v>50.441176470588239</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="78">
         <f t="shared" si="2"/>
         <v>68.600000000000009</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="73">
         <v>2</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="73">
         <v>0</v>
       </c>
-      <c r="M6" s="75">
+      <c r="M6" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="80">
         <f>2000*SQRT(B5/volume_A)</f>
         <v>178.51762451692113</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="80">
         <f>2000*SQRT(C5/volume_B1)</f>
         <v>222.99440402564559</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <f>2000*SQRT(D5/volume_B2)</f>
-        <v>123.96115449133966</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="80">
+        <v>235.40206895346228</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="78">
         <f t="shared" si="0"/>
         <v>114.33333333333333</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="78">
         <f t="shared" si="1"/>
         <v>142.91666666666669</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="78">
         <f t="shared" si="2"/>
         <v>68.600000000000009</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="73">
         <v>0</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="73">
         <v>2</v>
       </c>
-      <c r="M7" s="75">
+      <c r="M7" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="80">
         <f>2000*SQRT(B6/volume_A)</f>
         <v>174.30790573817364</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="80">
         <f>2000*SQRT(C6/volume_B1)</f>
         <v>217.69982729518813</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <f>2000*SQRT(D6/volume_B2)</f>
-        <v>112.90160345302733</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="80">
+        <v>230.03137066336689</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="78">
         <f t="shared" si="0"/>
         <v>46.986301369863014</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="78">
         <f t="shared" si="1"/>
         <v>59.137931034482762</v>
       </c>
-      <c r="J8" s="80">
+      <c r="J8" s="78">
         <f t="shared" si="2"/>
         <v>85.75</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="73">
         <v>0</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="73">
         <v>0</v>
       </c>
-      <c r="M8" s="75">
+      <c r="M8" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="74"/>
-      <c r="H9" s="80">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G9" s="72"/>
+      <c r="H9" s="78">
         <f t="shared" si="0"/>
         <v>60.529411764705884</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="78">
         <f t="shared" si="1"/>
         <v>75.661764705882348</v>
       </c>
-      <c r="J9" s="80">
+      <c r="J9" s="78">
         <f t="shared" si="2"/>
         <v>102.89999999999999</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="73">
         <v>3</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="73">
         <v>0</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="74"/>
-      <c r="H10" s="80">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="72"/>
+      <c r="H10" s="78">
         <f t="shared" si="0"/>
         <v>171.5</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="78">
         <f t="shared" si="1"/>
         <v>214.375</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="78">
         <f t="shared" si="2"/>
         <v>102.89999999999999</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="73">
         <v>0</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="73">
         <v>3</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="74"/>
-      <c r="H11" s="80">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="72"/>
+      <c r="H11" s="78">
         <f t="shared" si="0"/>
         <v>70.479452054794521</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="78">
         <f t="shared" si="1"/>
         <v>88.706896551724142</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="78">
         <f t="shared" si="2"/>
         <v>128.625</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="73">
         <v>0</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="73">
         <v>0</v>
       </c>
-      <c r="M11" s="75">
+      <c r="M11" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="G12" s="72" t="s">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="78">
         <f t="shared" si="0"/>
         <v>60.622749386477857</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="78">
         <f t="shared" si="1"/>
         <v>75.778436733097323</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="78">
         <f t="shared" si="2"/>
         <v>48.507525189397171</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="73">
         <v>1</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="73">
         <v>1</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="77"/>
-      <c r="H13" s="80">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G13" s="75"/>
+      <c r="H13" s="78">
         <f t="shared" si="0"/>
         <v>30.968017284011282</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="78">
         <f t="shared" si="1"/>
         <v>38.863888028529338</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="78">
         <f t="shared" si="2"/>
         <v>54.906790335986678</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="73">
         <v>1</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="74">
         <v>0</v>
       </c>
-      <c r="M13" s="75">
+      <c r="M13" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="77"/>
-      <c r="H14" s="80">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G14" s="75"/>
+      <c r="H14" s="78">
         <f t="shared" si="0"/>
         <v>61.805791855478034</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="78">
         <f t="shared" si="1"/>
         <v>77.334449791393666</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="78">
         <f t="shared" si="2"/>
         <v>54.906790335986678</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="73">
         <v>0</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="73">
         <v>1</v>
       </c>
-      <c r="M14" s="75">
+      <c r="M14" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="77"/>
-      <c r="H15" s="80">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15" s="75"/>
+      <c r="H15" s="78">
         <f t="shared" si="0"/>
         <v>69.974192666793044</v>
       </c>
-      <c r="I15" s="80">
+      <c r="I15" s="78">
         <f t="shared" si="1"/>
         <v>87.46774083349132</v>
       </c>
-      <c r="J15" s="80">
+      <c r="J15" s="78">
         <f t="shared" si="2"/>
         <v>76.697131628242801</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="73">
         <v>2</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="73">
         <v>1</v>
       </c>
-      <c r="M15" s="75">
+      <c r="M15" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="77"/>
-      <c r="H16" s="80">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G16" s="75"/>
+      <c r="H16" s="78">
         <f t="shared" si="0"/>
         <v>116.09996156979999</v>
       </c>
-      <c r="I16" s="80">
+      <c r="I16" s="78">
         <f t="shared" si="1"/>
         <v>145.12495196225001</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="78">
         <f t="shared" si="2"/>
         <v>76.697131628242801</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="73">
         <v>1</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="73">
         <v>2</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="77"/>
-      <c r="H17" s="80">
+    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G17" s="75"/>
+      <c r="H17" s="78">
         <f t="shared" si="0"/>
         <v>73.998245210257309</v>
       </c>
-      <c r="I17" s="80">
+      <c r="I17" s="78">
         <f t="shared" si="1"/>
         <v>92.755529699403994</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="78">
         <f t="shared" si="2"/>
         <v>92.355576442356764</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="73">
         <v>0</v>
       </c>
-      <c r="L17" s="75">
+      <c r="L17" s="73">
         <v>1</v>
       </c>
-      <c r="M17" s="75">
+      <c r="M17" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="77"/>
-      <c r="H18" s="80">
+    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="75"/>
+      <c r="H18" s="78">
         <f t="shared" si="0"/>
         <v>121.24549877295571</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="78">
         <f t="shared" si="1"/>
         <v>151.55687346619465</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="78">
         <f t="shared" si="2"/>
         <v>97.015050378794342</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="73">
         <v>2</v>
       </c>
-      <c r="L18" s="75">
+      <c r="L18" s="73">
         <v>2</v>
       </c>
-      <c r="M18" s="75">
+      <c r="M18" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="77"/>
-      <c r="H19" s="80">
+    <row r="19" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="75"/>
+      <c r="H19" s="78">
         <f t="shared" si="0"/>
         <v>123.61158371095607</v>
       </c>
-      <c r="I19" s="80">
+      <c r="I19" s="78">
         <f t="shared" si="1"/>
         <v>154.66889958278733</v>
       </c>
-      <c r="J19" s="80">
+      <c r="J19" s="78">
         <f t="shared" si="2"/>
         <v>109.81358067197336</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="73">
         <v>0</v>
       </c>
-      <c r="L19" s="75">
+      <c r="L19" s="73">
         <v>2</v>
       </c>
-      <c r="M19" s="75">
+      <c r="M19" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="77"/>
-      <c r="H20" s="80">
+    <row r="20" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="75"/>
+      <c r="H20" s="78">
         <f t="shared" si="0"/>
         <v>61.936034568022563</v>
       </c>
-      <c r="I20" s="80">
+      <c r="I20" s="78">
         <f t="shared" si="1"/>
         <v>77.727776057058676</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="78">
         <f t="shared" si="2"/>
         <v>109.81358067197336</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="73">
         <v>2</v>
       </c>
-      <c r="L20" s="75">
+      <c r="L20" s="73">
         <v>0</v>
       </c>
-      <c r="M20" s="75">
+      <c r="M20" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="7:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="G21" s="78" t="s">
+    <row r="21" spans="7:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G21" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="78">
         <f t="shared" si="0"/>
         <v>65.015735574402285</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="78">
         <f t="shared" si="1"/>
         <v>81.343070973942488</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="78">
         <f t="shared" si="2"/>
         <v>64.73983028244669</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="73">
         <v>1</v>
       </c>
-      <c r="L21" s="75">
+      <c r="L21" s="73">
         <v>1</v>
       </c>
-      <c r="M21" s="75">
+      <c r="M21" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="79"/>
-      <c r="H22" s="80">
+    <row r="22" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G22" s="77"/>
+      <c r="H22" s="78">
         <f t="shared" si="0"/>
         <v>73.812707364480076</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="78">
         <f t="shared" si="1"/>
         <v>92.330544286680194</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="78">
         <f t="shared" si="2"/>
         <v>87.867602818103563</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="73">
         <v>2</v>
       </c>
-      <c r="L22" s="75">
+      <c r="L22" s="73">
         <v>1</v>
       </c>
-      <c r="M22" s="75">
+      <c r="M22" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="79"/>
-      <c r="H23" s="80">
+    <row r="23" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G23" s="77"/>
+      <c r="H23" s="78">
         <f t="shared" si="0"/>
         <v>118.45306752302338</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="78">
         <f t="shared" si="1"/>
         <v>148.10663524570796</v>
       </c>
-      <c r="J23" s="80">
+      <c r="J23" s="78">
         <f t="shared" si="2"/>
         <v>87.867602818103563</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="73">
         <v>1</v>
       </c>
-      <c r="L23" s="75">
+      <c r="L23" s="73">
         <v>2</v>
       </c>
-      <c r="M23" s="75">
+      <c r="M23" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="79"/>
-      <c r="H24" s="80">
+    <row r="24" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="77"/>
+      <c r="H24" s="78">
         <f t="shared" si="0"/>
         <v>84.285824168652837</v>
       </c>
-      <c r="I24" s="80">
+      <c r="I24" s="78">
         <f t="shared" si="1"/>
         <v>105.58361886937786</v>
       </c>
-      <c r="J24" s="80">
+      <c r="J24" s="78">
         <f t="shared" si="2"/>
         <v>115.04569744236419</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="73">
         <v>2</v>
       </c>
-      <c r="L24" s="75">
+      <c r="L24" s="73">
         <v>1</v>
       </c>
-      <c r="M24" s="75">
+      <c r="M24" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="79"/>
-      <c r="H25" s="80">
+    <row r="25" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G25" s="77"/>
+      <c r="H25" s="78">
         <f t="shared" si="0"/>
         <v>125.24740952582063</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="78">
         <f t="shared" si="1"/>
         <v>156.71166698457588</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="78">
         <f t="shared" si="2"/>
         <v>115.04569744236419</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="73">
         <v>1</v>
       </c>
-      <c r="L25" s="75">
+      <c r="L25" s="73">
         <v>2</v>
       </c>
-      <c r="M25" s="75">
+      <c r="M25" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G26" s="79"/>
-      <c r="H26" s="80">
+    <row r="26" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G26" s="77"/>
+      <c r="H26" s="78">
         <f t="shared" si="0"/>
         <v>84.285824168652837</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="78">
         <f t="shared" si="1"/>
         <v>105.58361886937786</v>
       </c>
-      <c r="J26" s="80">
+      <c r="J26" s="78">
         <f t="shared" si="2"/>
         <v>115.04569744236419</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="73">
         <v>2</v>
       </c>
-      <c r="L26" s="75">
+      <c r="L26" s="73">
         <v>1</v>
       </c>
-      <c r="M26" s="75">
+      <c r="M26" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="79"/>
-      <c r="H27" s="80">
+    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G27" s="77"/>
+      <c r="H27" s="78">
         <f t="shared" si="0"/>
         <v>130.03147114880457</v>
       </c>
-      <c r="I27" s="80">
+      <c r="I27" s="78">
         <f t="shared" si="1"/>
         <v>162.68614194788498</v>
       </c>
-      <c r="J27" s="80">
+      <c r="J27" s="78">
         <f t="shared" si="2"/>
         <v>129.47966056489338</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="73">
         <v>2</v>
       </c>
-      <c r="L27" s="75">
+      <c r="L27" s="73">
         <v>2</v>
       </c>
-      <c r="M27" s="75">
+      <c r="M27" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" s="79"/>
-      <c r="H28" s="80">
+    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G28" s="77"/>
+      <c r="H28" s="78">
         <f t="shared" si="0"/>
         <v>137.63587219948155</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="78">
         <f t="shared" si="1"/>
         <v>172.18353909871482</v>
       </c>
-      <c r="J28" s="80">
+      <c r="J28" s="78">
         <f t="shared" si="2"/>
         <v>150.49063924377489</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="73">
         <v>3</v>
       </c>
-      <c r="L28" s="75">
+      <c r="L28" s="73">
         <v>2</v>
       </c>
-      <c r="M28" s="75">
+      <c r="M28" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29" s="79"/>
-      <c r="H29" s="80">
+    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G29" s="77"/>
+      <c r="H29" s="78">
         <f t="shared" si="0"/>
         <v>182.3412251193111</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="78">
         <f t="shared" si="1"/>
         <v>228.03124302554741</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="78">
         <f t="shared" si="2"/>
         <v>150.49063924377489</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="73">
         <v>2</v>
       </c>
-      <c r="L29" s="75">
+      <c r="L29" s="73">
         <v>3</v>
       </c>
-      <c r="M29" s="75">
+      <c r="M29" s="73">
         <v>2</v>
       </c>
     </row>

--- a/RoomAcoustics/modulo 2/1_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/modulo 2/1_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i7\Documents\GitHub\MusicalAcousticsHWs\RoomAcoustics\modulo 2\1_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F675CAE3-183A-49A3-94B9-6B9545ABB04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878D536-86C2-4D2C-B555-6621E6FFD7DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="761" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1237,6 +1237,12 @@
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,16 +1255,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1282,10 +1279,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,22 +1303,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1318,34 +1315,37 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15766,7 +15766,7 @@
               <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Angsana New" panose="020B0502040204020203" pitchFamily="18" charset="-34"/>
             </a:rPr>
-            <a:t> averaged is actually varies very little between first three cases. When we change material (case C) instead deviation values display a considerable variation. </a:t>
+            <a:t> averaged  actually varies very little between first three cases. When we change material (case C) instead deviation values display a considerable variation. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16076,14 +16076,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="85"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
@@ -16097,20 +16097,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -16246,14 +16246,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
@@ -16388,7 +16388,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -16417,18 +16417,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -16461,10 +16461,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -16502,11 +16502,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.14322978529008681</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -16540,11 +16540,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
         <v>0.10523069894929193</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -16578,11 +16578,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>9.174280493375972E-2</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -16616,11 +16616,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7512562814070379E-2</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -16654,11 +16654,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.1685701233439943E-2</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -16692,36 +16692,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>6.1831886706258575E-2</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="I11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="M11" s="93" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16732,23 +16732,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -16759,17 +16759,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="91">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>36.594409401376723</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -16780,17 +16780,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>25.744066065912751</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -16801,17 +16801,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>22.111027701283842</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -16822,11 +16822,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>15.848470886212384</v>
       </c>
-      <c r="O17" s="92"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
@@ -16839,11 +16839,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>14.390700448399931</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
@@ -16857,25 +16857,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>14.427051834538505</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="I21" s="89" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -17023,23 +17023,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -17051,6 +17034,23 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17076,18 +17076,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -17120,10 +17120,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -17161,11 +17161,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -17199,11 +17199,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.10610792192881746</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -17237,11 +17237,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -17275,11 +17275,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -17313,11 +17313,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -17351,36 +17351,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="I11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="M11" s="93" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17391,23 +17391,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17418,17 +17418,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="91">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>23.464703546708158</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17439,17 +17439,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>16.542489146908476</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17460,17 +17460,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>14.179971665654724</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17481,11 +17481,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>10.162739591032276</v>
       </c>
-      <c r="O17" s="92"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
@@ -17498,11 +17498,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>9.2083371786319699</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
@@ -17516,25 +17516,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>9.1992455924559273</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="I21" s="89" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -17682,12 +17682,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17701,15 +17704,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17734,18 +17734,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -17778,10 +17778,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -17819,11 +17819,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
         <v>0.14211076923076923</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -17857,11 +17857,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.10518769230769233</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -17895,11 +17895,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>8.8841538461538472E-2</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -17933,11 +17933,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7490769230769229E-2</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -17971,11 +17971,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.3344615384615388E-2</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -18009,36 +18009,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="I11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="M11" s="93" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18049,23 +18049,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18076,17 +18076,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="91">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>21.534714899538759</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18097,17 +18097,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>15.281864009298042</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18118,17 +18118,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>12.675511985587242</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18139,11 +18139,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>9.4088076669894782</v>
       </c>
-      <c r="O17" s="92"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
@@ -18156,11 +18156,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>8.7917073186756145</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
@@ -18174,25 +18174,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>7.8871446754348753</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="I21" s="89" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -18340,12 +18340,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18359,15 +18362,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18381,7 +18381,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
@@ -18392,18 +18392,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -18439,10 +18439,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -18483,11 +18483,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
         <v>0.19950890817724987</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -18524,11 +18524,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.22120146185472822</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -18565,11 +18565,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.2563302878026496</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -18606,11 +18606,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.28933576975788033</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -18647,11 +18647,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.293772498857926</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -18688,36 +18688,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.28408679762448608</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="I11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="M11" s="93" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18728,23 +18728,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18755,17 +18755,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="91">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>54.557134296842662</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18776,17 +18776,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>62.173973920541535</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18797,17 +18797,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>75.451102928755148</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18818,11 +18818,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>89.121693909403433</v>
       </c>
-      <c r="O17" s="92"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
@@ -18835,17 +18835,17 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>91.056776882812429</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="103"/>
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -18857,25 +18857,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>86.863323366093766</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="I21" s="89" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -19023,12 +19023,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19042,16 +19046,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19076,22 +19076,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="121" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="N1" s="93" t="s">
+      <c r="H1" s="104"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -19127,10 +19127,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -19171,11 +19171,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.18063145809414469</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -19212,11 +19212,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.27305396096440876</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -19253,11 +19253,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.44091963260619982</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -19294,11 +19294,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.54718484500574061</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -19335,11 +19335,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.5401308840413318</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -19376,36 +19376,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.53591044776119412</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="I11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="M11" s="93" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19416,23 +19416,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19443,17 +19443,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="91">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>30.722194851962396</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19464,17 +19464,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>52.346113681949554</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19485,17 +19485,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>109.9064885544779</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19506,11 +19506,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>168.40355089477237</v>
       </c>
-      <c r="O17" s="92"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
@@ -19523,11 +19523,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>163.68274665082163</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
@@ -19541,25 +19541,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>160.92687206535027</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="I21" s="89" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -19707,13 +19707,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19727,15 +19729,13 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19760,18 +19760,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -19807,10 +19807,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -19851,11 +19851,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.19182153846153846</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -19892,11 +19892,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.26621846153846151</v>
       </c>
-      <c r="O5" s="95"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -19933,11 +19933,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.38865538461538468</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -19974,11 +19974,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.43475230769230772</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -20015,11 +20015,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.43422307692307704</v>
       </c>
-      <c r="O8" s="95"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -20056,36 +20056,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.42225692307692314</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="I11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="M11" s="93" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -20096,23 +20096,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -20123,17 +20123,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="91">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>30.855561224101301</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -20144,17 +20144,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="91">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>47.164446345380512</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -20165,17 +20165,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>82.64602112870999</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -20186,11 +20186,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="91">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>99.987670483464015</v>
       </c>
-      <c r="O17" s="92"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="12">
@@ -20203,11 +20203,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>99.772538782613466</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="13"/>
@@ -20221,25 +20221,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="91">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>95.013514125256648</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="I21" s="89" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -20387,12 +20387,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20406,15 +20409,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20441,42 +20441,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="107" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="L1" s="107" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="L1" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
@@ -20494,10 +20494,10 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="44" t="s">
         <v>69</v>
       </c>
@@ -20515,17 +20515,17 @@
       <c r="B4" s="57">
         <v>58</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
@@ -20541,10 +20541,10 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="115">
+      <c r="J5" s="113">
         <v>125</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
@@ -20568,10 +20568,10 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="115">
+      <c r="J6" s="113">
         <v>250</v>
       </c>
-      <c r="K6" s="115"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
@@ -20595,10 +20595,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="115">
+      <c r="J7" s="113">
         <v>500</v>
       </c>
-      <c r="K7" s="115"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
@@ -20622,10 +20622,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="113">
         <v>1000</v>
       </c>
-      <c r="K8" s="115"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
@@ -20662,10 +20662,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="115">
+      <c r="J9" s="113">
         <v>2000</v>
       </c>
-      <c r="K9" s="115"/>
+      <c r="K9" s="113"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
@@ -20716,33 +20716,33 @@
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
       <c r="F13" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="109" t="s">
+      <c r="I13" s="107" t="s">
         <v>59</v>
       </c>
       <c r="L13" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="109" t="s">
+      <c r="M13" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="109" t="s">
+      <c r="N13" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="109" t="s">
+      <c r="O13" s="107" t="s">
         <v>59</v>
       </c>
       <c r="R13" s="31" t="s">
@@ -20754,17 +20754,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
       <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -21013,18 +21013,18 @@
         <f>IF(SUM(I17:I21) &gt; 10, "ERROR", SUM(I17:I21) )</f>
         <v>10</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="103"/>
+      <c r="K22" s="106"/>
       <c r="O22" s="50">
         <f>IF(SUM(O17:O21) &gt; 10, "ERROR", SUM(O17:O21) )</f>
         <v>8.6853992195166114</v>
       </c>
-      <c r="P22" s="102" t="s">
+      <c r="P22" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="103"/>
+      <c r="Q22" s="106"/>
     </row>
     <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
@@ -21048,32 +21048,32 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="110"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="120">
+      <c r="B27" s="86">
         <v>50</v>
       </c>
       <c r="C27" s="25"/>
@@ -21084,18 +21084,18 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="100" t="s">
+      <c r="H29" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="105"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="120"/>
       <c r="L29" s="28" t="s">
         <v>84</v>
       </c>
@@ -21162,38 +21162,38 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="E34" s="107" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="E34" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="107"/>
+      <c r="F34" s="114"/>
       <c r="H34" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="109" t="s">
+      <c r="I34" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="109" t="s">
+      <c r="J34" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="109" t="s">
+      <c r="K34" s="107" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
@@ -21331,11 +21331,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L40" s="104" t="s">
+      <c r="L40" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -21417,13 +21417,37 @@
         <f>IF(SUM(K38:K42) &gt; 10, "ERROR", SUM(K38:K42) )</f>
         <v>8.8282406190027132</v>
       </c>
-      <c r="L43" s="102" t="s">
+      <c r="L43" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="M43" s="103"/>
+      <c r="M43" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21437,30 +21461,6 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21487,17 +21487,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="H1" s="118" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="H1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
       <c r="K1" s="69" t="s">
         <v>101</v>
       </c>
